--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efna1-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efna1-Epha3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.905615</v>
+        <v>23.630375</v>
       </c>
       <c r="H2">
-        <v>35.716845</v>
+        <v>70.89112499999999</v>
       </c>
       <c r="I2">
-        <v>0.8197078149061106</v>
+        <v>0.9002398112414131</v>
       </c>
       <c r="J2">
-        <v>0.8197078149061106</v>
+        <v>0.9002398112414129</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.06698166666666668</v>
+        <v>0.003058333333333333</v>
       </c>
       <c r="N2">
-        <v>0.200945</v>
+        <v>0.009175000000000001</v>
       </c>
       <c r="O2">
-        <v>0.003012576978541733</v>
+        <v>0.0001379486413073712</v>
       </c>
       <c r="P2">
-        <v>0.003012576978541732</v>
+        <v>0.0001379486413073712</v>
       </c>
       <c r="Q2">
-        <v>0.7974579353916668</v>
+        <v>0.07226956354166666</v>
       </c>
       <c r="R2">
-        <v>7.177121418525</v>
+        <v>0.6504260718749999</v>
       </c>
       <c r="S2">
-        <v>0.002469432892316896</v>
+        <v>0.0001241868588115573</v>
       </c>
       <c r="T2">
-        <v>0.002469432892316896</v>
+        <v>0.0001241868588115572</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.905615</v>
+        <v>23.630375</v>
       </c>
       <c r="H3">
-        <v>35.716845</v>
+        <v>70.89112499999999</v>
       </c>
       <c r="I3">
-        <v>0.8197078149061106</v>
+        <v>0.9002398112414131</v>
       </c>
       <c r="J3">
-        <v>0.8197078149061106</v>
+        <v>0.9002398112414129</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>66.10861</v>
       </c>
       <c r="O3">
-        <v>0.9911034191912899</v>
+        <v>0.9939610820947024</v>
       </c>
       <c r="P3">
-        <v>0.9911034191912899</v>
+        <v>0.9939610820947024</v>
       </c>
       <c r="Q3">
-        <v>262.3545529483833</v>
+        <v>520.7237483429166</v>
       </c>
       <c r="R3">
-        <v>2361.19097653545</v>
+        <v>4686.513735086249</v>
       </c>
       <c r="S3">
-        <v>0.8124152180912672</v>
+        <v>0.8948033369262455</v>
       </c>
       <c r="T3">
-        <v>0.8124152180912672</v>
+        <v>0.8948033369262454</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.905615</v>
+        <v>23.630375</v>
       </c>
       <c r="H4">
-        <v>35.716845</v>
+        <v>70.89112499999999</v>
       </c>
       <c r="I4">
-        <v>0.8197078149061106</v>
+        <v>0.9002398112414131</v>
       </c>
       <c r="J4">
-        <v>0.8197078149061106</v>
+        <v>0.9002398112414129</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,22 +682,22 @@
         <v>0.392475</v>
       </c>
       <c r="O4">
-        <v>0.005884003830168287</v>
+        <v>0.005900969263990248</v>
       </c>
       <c r="P4">
-        <v>0.005884003830168286</v>
+        <v>0.005900969263990248</v>
       </c>
       <c r="Q4">
-        <v>1.557552082375</v>
+        <v>3.091443809374999</v>
       </c>
       <c r="R4">
-        <v>14.017968741375</v>
+        <v>27.822994284375</v>
       </c>
       <c r="S4">
-        <v>0.004823163922526432</v>
+        <v>0.005312287456355961</v>
       </c>
       <c r="T4">
-        <v>0.004823163922526431</v>
+        <v>0.005312287456355961</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4.894019999999999</v>
       </c>
       <c r="I5">
-        <v>0.1123186115768849</v>
+        <v>0.06214870537054815</v>
       </c>
       <c r="J5">
-        <v>0.1123186115768849</v>
+        <v>0.06214870537054815</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.06698166666666668</v>
+        <v>0.003058333333333333</v>
       </c>
       <c r="N5">
-        <v>0.200945</v>
+        <v>0.009175000000000001</v>
       </c>
       <c r="O5">
-        <v>0.003012576978541733</v>
+        <v>0.0001379486413073712</v>
       </c>
       <c r="P5">
-        <v>0.003012576978541732</v>
+        <v>0.0001379486413073712</v>
       </c>
       <c r="Q5">
-        <v>0.1092698721</v>
+        <v>0.004989181499999999</v>
       </c>
       <c r="R5">
-        <v>0.9834288488999999</v>
+        <v>0.0449026335</v>
       </c>
       <c r="S5">
-        <v>0.0003383684634982943</v>
+        <v>8.573329464879243E-06</v>
       </c>
       <c r="T5">
-        <v>0.0003383684634982943</v>
+        <v>8.573329464879243E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4.894019999999999</v>
       </c>
       <c r="I6">
-        <v>0.1123186115768849</v>
+        <v>0.06214870537054815</v>
       </c>
       <c r="J6">
-        <v>0.1123186115768849</v>
+        <v>0.06214870537054815</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>66.10861</v>
       </c>
       <c r="O6">
-        <v>0.9911034191912899</v>
+        <v>0.9939610820947024</v>
       </c>
       <c r="P6">
-        <v>0.9911034191912899</v>
+        <v>0.9939610820947024</v>
       </c>
       <c r="Q6">
         <v>35.94853994579999</v>
@@ -818,10 +818,10 @@
         <v>323.5368595122</v>
       </c>
       <c r="S6">
-        <v>0.111319359972669</v>
+        <v>0.06177339444089488</v>
       </c>
       <c r="T6">
-        <v>0.111319359972669</v>
+        <v>0.06177339444089488</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4.894019999999999</v>
       </c>
       <c r="I7">
-        <v>0.1123186115768849</v>
+        <v>0.06214870537054815</v>
       </c>
       <c r="J7">
-        <v>0.1123186115768849</v>
+        <v>0.06214870537054815</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,10 +868,10 @@
         <v>0.392475</v>
       </c>
       <c r="O7">
-        <v>0.005884003830168287</v>
+        <v>0.005900969263990248</v>
       </c>
       <c r="P7">
-        <v>0.005884003830168286</v>
+        <v>0.005900969263990248</v>
       </c>
       <c r="Q7">
         <v>0.2134200555</v>
@@ -880,10 +880,10 @@
         <v>1.9207804995</v>
       </c>
       <c r="S7">
-        <v>0.0006608831407175748</v>
+        <v>0.0003667376001883903</v>
       </c>
       <c r="T7">
-        <v>0.0006608831407175747</v>
+        <v>0.0003667376001883903</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>2.961789</v>
       </c>
       <c r="I8">
-        <v>0.0679735735170045</v>
+        <v>0.03761148338803896</v>
       </c>
       <c r="J8">
-        <v>0.06797357351700449</v>
+        <v>0.03761148338803896</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.06698166666666668</v>
+        <v>0.003058333333333333</v>
       </c>
       <c r="N8">
-        <v>0.200945</v>
+        <v>0.009175000000000001</v>
       </c>
       <c r="O8">
-        <v>0.003012576978541733</v>
+        <v>0.0001379486413073712</v>
       </c>
       <c r="P8">
-        <v>0.003012576978541732</v>
+        <v>0.0001379486413073712</v>
       </c>
       <c r="Q8">
-        <v>0.06612852117833334</v>
+        <v>0.003019379341666667</v>
       </c>
       <c r="R8">
-        <v>0.595156690605</v>
+        <v>0.027174414075</v>
       </c>
       <c r="S8">
-        <v>0.0002047756227265418</v>
+        <v>5.188453030934739E-06</v>
       </c>
       <c r="T8">
-        <v>0.0002047756227265417</v>
+        <v>5.188453030934739E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>2.961789</v>
       </c>
       <c r="I9">
-        <v>0.0679735735170045</v>
+        <v>0.03761148338803896</v>
       </c>
       <c r="J9">
-        <v>0.06797357351700449</v>
+        <v>0.03761148338803896</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>66.10861</v>
       </c>
       <c r="O9">
-        <v>0.9911034191912899</v>
+        <v>0.9939610820947024</v>
       </c>
       <c r="P9">
-        <v>0.9911034191912899</v>
+        <v>0.9939610820947024</v>
       </c>
       <c r="Q9">
         <v>21.75552821147667</v>
@@ -1004,10 +1004,10 @@
         <v>195.79975390329</v>
       </c>
       <c r="S9">
-        <v>0.06736884112735367</v>
+        <v>0.03738435072756213</v>
       </c>
       <c r="T9">
-        <v>0.06736884112735365</v>
+        <v>0.03738435072756213</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>2.961789</v>
       </c>
       <c r="I10">
-        <v>0.0679735735170045</v>
+        <v>0.03761148338803896</v>
       </c>
       <c r="J10">
-        <v>0.06797357351700449</v>
+        <v>0.03761148338803896</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,10 +1054,10 @@
         <v>0.392475</v>
       </c>
       <c r="O10">
-        <v>0.005884003830168287</v>
+        <v>0.005900969263990248</v>
       </c>
       <c r="P10">
-        <v>0.005884003830168286</v>
+        <v>0.005900969263990248</v>
       </c>
       <c r="Q10">
         <v>0.129158681975</v>
@@ -1066,10 +1066,10 @@
         <v>1.162428137775</v>
       </c>
       <c r="S10">
-        <v>0.0003999567669242801</v>
+        <v>0.0002219442074458977</v>
       </c>
       <c r="T10">
-        <v>0.00039995676692428</v>
+        <v>0.0002219442074458977</v>
       </c>
     </row>
   </sheetData>
